--- a/data/trans_bre/P18_2_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P18_2_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -636,52 +668,72 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>-1,45</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,89</t>
+          <t>-4,26</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-4,02</t>
+          <t>-1,61</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-20,98%</t>
+          <t>4,02</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-21,01%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>32,9%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-84,59%</t>
-        </is>
-      </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-4,08%</t>
+          <t>18,35%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-89,19%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-77,86%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>299,6%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>11,06%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,06; 3,65</t>
+          <t>-10,25; 3,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,84</t>
+          <t>0,0; 4,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 2,95</t>
+          <t>-3,47; 2,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,83; -0,52</t>
+          <t>-11,14; -0,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,55; 0,35</t>
+          <t>-6,42; 0,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-80,96; 101,66</t>
+          <t>-0,38; 9,26</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>-4,23; 3,03</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-83,16; 122,07</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
+      <c r="L5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K5" s="2" t="inlineStr">
+      <c r="M5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-9,62; 0,31</t>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -756,52 +828,72 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,91</t>
+          <t>-2,9</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,83</t>
+          <t>-2,84</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,97</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-30,6%</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-67,21%</t>
+          <t>-2,09</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>164,04%</t>
+          <t>-30,56%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-18,65%</t>
+          <t>-66,7%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-0,38%</t>
+          <t>136,98%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-3,46%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-19,83%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>21,58%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-57,17%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,51; 3,11</t>
+          <t>-13,16; 2,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-12,96; 0,54</t>
+          <t>-10,93; 0,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 7,64</t>
+          <t>-0,57; 6,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 1,56</t>
+          <t>-2,03; 1,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 3,07</t>
+          <t>-4,66; 2,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-76,14; 61,37</t>
+          <t>-3,06; 3,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>-7,46; 1,13</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-77,89; 49,52</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-30,49; 1108,79</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-38,72; 1210,99</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-3,26; 3,2</t>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -881,47 +993,67 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,19</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>-1,45</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>-1,38</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-3,45</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>-46,0%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>12,82%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-11,78%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>93,31%</t>
+          <t>13,28%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>2,83%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>96,98%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-34,55%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-28,28%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-70,03%</t>
         </is>
       </c>
     </row>
@@ -934,52 +1066,72 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,41; 0,2</t>
+          <t>-7,14; 0,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 2,97</t>
+          <t>-2,29; 2,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 2,85</t>
+          <t>-3,6; 3,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 5,04</t>
+          <t>-0,61; 4,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 4,96</t>
+          <t>-5,3; 1,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-78,12; 13,18</t>
+          <t>-4,79; 2,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-69,44; 348,2</t>
+          <t>-7,69; -0,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-56,3; 70,87</t>
+          <t>-77,96; 15,13</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-23,53; 394,13</t>
+          <t>-70,4; 237,79</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 5,4</t>
+          <t>-47,51; 96,26</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-23,88; 443,8</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-79,24; 86,28</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-73,03; 107,58</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 25,33</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1153,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1016,32 +1168,52 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-1,16</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
+          <t>1,16</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1,82</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>49,82%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>29,35%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>48,52%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>20,87%</t>
+          <t>26,84%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-1,25%</t>
+          <t>48,5%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>20,31%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-17,17%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>17,5%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>23,55%</t>
         </is>
       </c>
     </row>
@@ -1054,52 +1226,72 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 10,14</t>
+          <t>-0,12; 10,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 4,47</t>
+          <t>-3,65; 4,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 5,36</t>
+          <t>-1,18; 5,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 3,73</t>
+          <t>-2,18; 3,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 3,63</t>
+          <t>-5,04; 2,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 137,84</t>
+          <t>-3,9; 5,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-50,32; 214,75</t>
+          <t>-3,51; 6,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-27,37; 212,84</t>
+          <t>-1,69; 130,21</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-42,14; 150,41</t>
+          <t>-59,31; 220,81</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 3,91</t>
+          <t>-24,81; 215,53</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-44,95; 166,26</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-66,54; 87,14</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-42,37; 129,87</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-34,94; 121,61</t>
         </is>
       </c>
     </row>
@@ -1121,47 +1313,67 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,39</t>
+          <t>4,43</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,8</t>
+          <t>6,58</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-5,52</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>26,67%</t>
+          <t>5,52</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>118,35%</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>98,77%</t>
+          <t>26,66%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>15,53%</t>
+          <t>121,7%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>-6,02%</t>
+          <t>94,98%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>10,55%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>7,58%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>66,16%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-13,81%</t>
         </is>
       </c>
     </row>
@@ -1174,52 +1386,72 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 10,13</t>
+          <t>-2,58; 11,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,07; 9,32</t>
+          <t>-0,05; 9,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,49; 12,37</t>
+          <t>0,94; 11,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 5,5</t>
+          <t>-3,98; 4,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-12,53; 1,33</t>
+          <t>-6,48; 5,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-16,66; 88,44</t>
+          <t>-1,87; 11,52</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-15,99; 461,68</t>
+          <t>-6,19; 3,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,81; 282,66</t>
+          <t>-14,61; 104,88</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-42,15; 123,31</t>
+          <t>-8,85; 570,01</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-13,3; 1,44</t>
+          <t>5,85; 256,2</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-46,46; 100,6</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-70,43; 155,45</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-17,3; 230,01</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-58,78; 81,95</t>
         </is>
       </c>
     </row>
@@ -1241,47 +1473,67 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,31</t>
+          <t>6,19</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3,78</t>
+          <t>4,7</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6,88</t>
+          <t>8,0</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-1,19</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>4,69</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>43,83%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>79,09%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>41,18%</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>214,91%</t>
+          <t>98,09%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>-1,29%</t>
+          <t>54,42%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>248,3%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>63,41%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>15,48%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>77,84%</t>
         </is>
       </c>
     </row>
@@ -1294,52 +1546,72 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,44; 15,71</t>
+          <t>0,55; 15,85</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 11,96</t>
+          <t>-2,56; 12,72</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 10,02</t>
+          <t>-3,16; 10,57</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,76; 13,12</t>
+          <t>3,74; 16,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-8,27; 5,73</t>
+          <t>-2,96; 8,34</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,54; 108,75</t>
+          <t>-5,42; 8,71</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-39,12; 363,92</t>
+          <t>-1,56; 11,39</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-33,7; 183,2</t>
+          <t>2,78; 113,33</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>37,76; 704,72</t>
+          <t>-42,48; 410,39</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-8,86; 6,43</t>
+          <t>-24,65; 198,76</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>46,36; 915,03</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-58,14; 514,95</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-54,25; 197,0</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-28,26; 303,57</t>
         </is>
       </c>
     </row>
@@ -1361,47 +1633,67 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,63</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,9</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>22,04%</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>55,99%</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>53,09%</t>
+          <t>22,05%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>48,04%</t>
+          <t>59,57%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>-2,0%</t>
+          <t>59,69%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>45,64%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-2,76%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>36,79%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>6,23%</t>
         </is>
       </c>
     </row>
@@ -1414,66 +1706,93 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 5,11</t>
+          <t>-0,54; 4,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 3,92</t>
+          <t>-0,22; 3,98</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,91; 4,48</t>
+          <t>1,08; 4,62</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,12; 3,2</t>
+          <t>-0,08; 3,47</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 0,27</t>
+          <t>-1,97; 1,58</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 55,14</t>
+          <t>-0,19; 4,17</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 158,61</t>
+          <t>-1,64; 2,45</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>14,26; 112,45</t>
+          <t>-4,78; 50,2</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,61; 121,56</t>
+          <t>-6,95; 153,32</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 0,29</t>
+          <t>17,25; 119,66</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-7,2; 115,8</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-42,29; 53,65</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-4,68; 97,51</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-27,12; 60,51</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
